--- a/Data/PlayTime1.xlsx
+++ b/Data/PlayTime1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SangoResearch\FantasyOfSango_DailyMissionRecommendAlgorithm\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F206A865-C1D5-41B0-BE8F-DC6D98A1374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA457DFA-3250-4996-96BE-BA39B3F2142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39345" yWindow="5295" windowWidth="24120" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onlineTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offlineTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,7 +376,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,38 +392,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.75694444444444453</v>
-      </c>
       <c r="D2">
         <v>137</v>
       </c>
@@ -453,12 +432,6 @@
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.51527777777777783</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.54652777777777783</v>
-      </c>
       <c r="D3">
         <v>105</v>
       </c>
@@ -479,12 +452,6 @@
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.71736111111111101</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.82708333333333339</v>
-      </c>
       <c r="D4">
         <v>124</v>
       </c>
@@ -505,12 +472,6 @@
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.68263888888888891</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.76041666666666663</v>
-      </c>
       <c r="D5">
         <v>145</v>
       </c>
@@ -531,12 +492,6 @@
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.90486111111111101</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.97013888888888899</v>
-      </c>
       <c r="D6">
         <v>125</v>
       </c>
@@ -557,12 +512,6 @@
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.86111111111111116</v>
-      </c>
       <c r="D7">
         <v>101</v>
       </c>
@@ -583,12 +532,6 @@
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.83124999999999993</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.88541666666666663</v>
-      </c>
       <c r="D8">
         <v>104</v>
       </c>
@@ -609,12 +552,6 @@
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.94027777777777777</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.96805555555555556</v>
-      </c>
       <c r="D9">
         <v>113</v>
       </c>
@@ -635,12 +572,6 @@
       <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.98819444444444438</v>
-      </c>
       <c r="D10">
         <v>142</v>
       </c>
@@ -661,12 +592,6 @@
       <c r="A11">
         <v>1010</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.70208333333333339</v>
-      </c>
       <c r="D11">
         <v>131</v>
       </c>
@@ -687,12 +612,6 @@
       <c r="A12">
         <v>1011</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.71805555555555556</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.72361111111111109</v>
-      </c>
       <c r="D12">
         <v>95</v>
       </c>
@@ -713,12 +632,6 @@
       <c r="A13">
         <v>1012</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.91319444444444453</v>
-      </c>
       <c r="D13">
         <v>127</v>
       </c>
@@ -739,12 +652,6 @@
       <c r="A14">
         <v>1013</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.99513888888888891</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.3750000000000004E-2</v>
-      </c>
       <c r="D14">
         <v>118</v>
       </c>
@@ -765,12 +672,6 @@
       <c r="A15">
         <v>1014</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.92847222222222225</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.98888888888888893</v>
-      </c>
       <c r="D15">
         <v>123</v>
       </c>
@@ -791,12 +692,6 @@
       <c r="A16">
         <v>1015</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.76736111111111116</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.8041666666666667</v>
-      </c>
       <c r="D16">
         <v>114</v>
       </c>
@@ -817,12 +712,6 @@
       <c r="A17">
         <v>1016</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.88680555555555562</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.96875</v>
-      </c>
       <c r="D17">
         <v>127</v>
       </c>
@@ -843,12 +732,6 @@
       <c r="A18">
         <v>1017</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="C18" s="1">
-        <v>9.7222222222222224E-3</v>
-      </c>
       <c r="D18">
         <v>122</v>
       </c>
@@ -869,12 +752,6 @@
       <c r="A19">
         <v>1018</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.93055555555555547</v>
-      </c>
       <c r="D19">
         <v>110</v>
       </c>
@@ -895,12 +772,6 @@
       <c r="A20">
         <v>1019</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.96527777777777779</v>
-      </c>
       <c r="D20">
         <v>105</v>
       </c>
@@ -921,12 +792,6 @@
       <c r="A21">
         <v>1020</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.99791666666666667</v>
-      </c>
       <c r="D21">
         <v>98</v>
       </c>
@@ -947,12 +812,6 @@
       <c r="A22">
         <v>1021</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.62152777777777779</v>
-      </c>
       <c r="D22">
         <v>105</v>
       </c>
@@ -973,12 +832,6 @@
       <c r="A23">
         <v>1022</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.74097222222222225</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.80972222222222223</v>
-      </c>
       <c r="D23">
         <v>104</v>
       </c>
@@ -998,12 +851,6 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1023</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.88750000000000007</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.97152777777777777</v>
       </c>
       <c r="D24">
         <v>114</v>
